--- a/Masjid/output/SPMD03746/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD03746/RekodBantuan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2719">
   <si>
     <t>MASJID NEGERI PULAU PINANG</t>
   </si>
@@ -7978,6 +7978,234 @@
   </si>
   <si>
     <t>3-1-16 LEBUH PADANG TEMBAK, 11400 AYER ITAM,11400 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>AFIQ FRANKIE BIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>012-7180010</t>
+  </si>
+  <si>
+    <t>NO 17 A PESARA LAHAT BARU 12,BANDAR LAJAT BARU 31500 LAHAT PERAK.,31500 HILIR PERAK,PERAK</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,BELI SUSU DAN PAMPERS ANAK SUDAH HABIS</t>
+  </si>
+  <si>
+    <t>GEROBOK REZEKI,BANTUAN JAKEL</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>DONY SYAHPUTRA BIN MOHD ZAIN</t>
+  </si>
+  <si>
+    <t>017-8484044</t>
+  </si>
+  <si>
+    <t>LOT 1828 LORONG HJ EHSAN OFF JLN PAIP KAMPUNG HJ MOHD 41050 KLANG SELANGOR,41050 HULU LANGAT,SELANGOR</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,UNTUK DUIT MOTO NAK ISI MIYAK UTK KERJA</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,UNTUK BELI SUSU ANAK</t>
+  </si>
+  <si>
+    <t>ROSZAINI BIN OSMAN</t>
+  </si>
+  <si>
+    <t>5-02-02 LENGKOK HAJI AHMAD PANGSAPURI JELUTONG INDAH 11600 GEORGETOWN PULAU PINANG,11600 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,UNTUK BELI SUSU DAN PAMPERS CUCU</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>MOHAMED SHARIEEF BIN V ALAVI KUTTY</t>
+  </si>
+  <si>
+    <t>0192295402</t>
+  </si>
+  <si>
+    <t>C-03-09 IDAMAN RESIDENCE JALAN IDAMAN 9 TAMAN NUSA IDAMAN 79100 ISKANDAR PUTERI JOHOR,79100 JOHOR BAHRU,JOHOR</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>ABU BAKAR BIN YUSOP</t>
+  </si>
+  <si>
+    <t>B-1-2 FLAT UDA TANJONG TOKONG 10470 GEORGETOWN,PULAU PINANG,10470 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,DUIT MAKAN DAN MINUM</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,UNTUK DUIT UBAT DIALISIS YANG SAYA BUAT SEKARANG NI.</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>SITI FATIMAH NOOR BINTI MAT ISA</t>
+  </si>
+  <si>
+    <t>011-62083431</t>
+  </si>
+  <si>
+    <t>3B-13-21 COURT,KG SEBERANG PAYA JALAN RUMBIA 11900 BAYAN LEPAS,11900 BARAT DAYA,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>SHAMSUL ANUAR BIN MOHD TAHIR</t>
+  </si>
+  <si>
+    <t>101A JALAN SUNGAI 10150 GEORGETOWN PULAU PINANG,10150 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>MAT SIRA BIN ISHAK</t>
+  </si>
+  <si>
+    <t>1365 POKOK TAMPANG 13300 TASEK GELUGOR,13300 SEBERANG PERAI UTARA (KEPALA BATAS),PULAU PINANG</t>
+  </si>
+  <si>
+    <t>HUSAIN BIN HASSAN</t>
+  </si>
+  <si>
+    <t>BLOK K-2-7 RUMAH PANGSA UDA,10470 GEORGETOWN,10470 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAFIZ BIN NOAZALAN</t>
+  </si>
+  <si>
+    <t>0113124553</t>
+  </si>
+  <si>
+    <t>NO 21 LORONG 24,TAMAN GUAR PERAHU,KUBANG SEMANG 14400 BUKIT MERTAJAM,14400 SEBERANG PERAI TENGAH,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,BERULANG ALIK DARI GUAR PERAHU.MOHON KEWANGAN UNTUK TAMBANG BALIK.BARU DAPAT KERJA PENGAWAL HOSPITAL PENANG.</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>ABDUL MALEK BIN ABDUL LATIF</t>
+  </si>
+  <si>
+    <t>0176274472</t>
+  </si>
+  <si>
+    <t>103-13A-02 GAMBIER HEIGHTS PERSIARAN BUKIT GAMBIR 1,11700 GELUGOR,11700 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>ROZAIME BIN OMAR</t>
+  </si>
+  <si>
+    <t>01127870826</t>
+  </si>
+  <si>
+    <t>J 2-2 TAMAN NUSANTARA JALAN MAKLOOM 10150 GEORGETOWN,10150 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>IZAFARENAS BINTI AMZAH</t>
+  </si>
+  <si>
+    <t>010-8151774</t>
+  </si>
+  <si>
+    <t>BLOK L-11-4 FLAT TAMAN FREEE SCHOOL.11600,11600 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>NUR NABILAH BINTI ABDULLAH</t>
+  </si>
+  <si>
+    <t>020120070360</t>
+  </si>
+  <si>
+    <t>BLOCK 80-G-6 FLAT JALAN TENGAH BAYAN BARU 11950,11950 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>IBRAHIM ALI  BIN NASIR AHAMED</t>
+  </si>
+  <si>
+    <t>019-9909965</t>
+  </si>
+  <si>
+    <t>BLOCK H 6-3-14 JALAN GANGSA GREENLANE HEIGHTS 11600 PULAU PINANG,11600 TIMUR LAUT,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BANTUAN KECEMASAN,BANTUAN KEWANGAN UNTUK BANTUAN SAKIT JANGKITAN KUMAN PADA PARU2.SEKARANG DUK BUAT PEMERIKSAAN DI HOSPITAL PULAU PINANG.</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BIN AB RAOF</t>
+  </si>
+  <si>
+    <t>1366 MUKIM 11 SUNGAI BATU TELUK KUMBAR 11920 BAYAN LEPAS,11920 BARAT DAYA,PULAU PINANG</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
   </si>
 </sst>
 </file>
@@ -8372,7 +8600,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R1287"/>
+  <dimension ref="A1:R1345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B6" sqref="B6"/>
@@ -71173,6 +71401,2848 @@
         <v>50</v>
       </c>
     </row>
+    <row r="1288" spans="1:18">
+      <c r="B1288" s="3">
+        <v>1283</v>
+      </c>
+      <c r="C1288" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D1288" s="3">
+        <v>600704075916</v>
+      </c>
+      <c r="E1288" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1288" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1288" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I1288" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1288" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1288" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L1288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1288" s="3"/>
+      <c r="N1288" s="3"/>
+      <c r="O1288" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1288" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="Q1288" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1288" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:18">
+      <c r="B1289" s="3">
+        <v>1284</v>
+      </c>
+      <c r="C1289" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1289" s="3">
+        <v>931007075562</v>
+      </c>
+      <c r="E1289" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1289" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G1289" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1289" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I1289" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1289" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1289" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L1289" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1289" s="3"/>
+      <c r="N1289" s="3"/>
+      <c r="O1289" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1289" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="Q1289" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1289" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:18">
+      <c r="B1290" s="3">
+        <v>1285</v>
+      </c>
+      <c r="C1290" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1290" s="3">
+        <v>930409085646</v>
+      </c>
+      <c r="E1290" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F1290" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="G1290" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1290" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I1290" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1290" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1290" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L1290" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1290" s="3"/>
+      <c r="N1290" s="3"/>
+      <c r="O1290" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1290" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="Q1290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1290" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:18">
+      <c r="B1291" s="3">
+        <v>1286</v>
+      </c>
+      <c r="C1291" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D1291" s="3">
+        <v>810419085299</v>
+      </c>
+      <c r="E1291" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1291" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G1291" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1291" s="3" t="s">
+        <v>2647</v>
+      </c>
+      <c r="I1291" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1291" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K1291" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L1291" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1291" s="3"/>
+      <c r="N1291" s="3"/>
+      <c r="O1291" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1291" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="Q1291" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1291" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:18">
+      <c r="B1292" s="3">
+        <v>1287</v>
+      </c>
+      <c r="C1292" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1292" s="3">
+        <v>480614075345</v>
+      </c>
+      <c r="E1292" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1292" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1292" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I1292" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1292" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1292" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L1292" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1292" s="3"/>
+      <c r="N1292" s="3"/>
+      <c r="O1292" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1292" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="Q1292" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1292" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:18">
+      <c r="B1293" s="3">
+        <v>1288</v>
+      </c>
+      <c r="C1293" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D1293" s="3">
+        <v>771016026367</v>
+      </c>
+      <c r="E1293" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1293" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G1293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1293" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I1293" s="3">
+        <v>4</v>
+      </c>
+      <c r="J1293" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1293" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="L1293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1293" s="3"/>
+      <c r="N1293" s="3"/>
+      <c r="O1293" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1293" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="Q1293" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1293" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:18">
+      <c r="B1294" s="3">
+        <v>1289</v>
+      </c>
+      <c r="C1294" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D1294" s="3">
+        <v>930604075582</v>
+      </c>
+      <c r="E1294" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1294" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G1294" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1294" s="3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I1294" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1294" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="K1294" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="L1294" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1294" s="3"/>
+      <c r="N1294" s="3"/>
+      <c r="O1294" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1294" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="Q1294" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R1294" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:18">
+      <c r="B1295" s="3">
+        <v>1290</v>
+      </c>
+      <c r="C1295" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1295" s="3">
+        <v>760924075523</v>
+      </c>
+      <c r="E1295" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1295" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1295" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1295" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1295" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1295" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="K1295" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L1295" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1295" s="3"/>
+      <c r="N1295" s="3"/>
+      <c r="O1295" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1295" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="Q1295" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:18">
+      <c r="B1296" s="3">
+        <v>1291</v>
+      </c>
+      <c r="C1296" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1296" s="3">
+        <v>840424715109</v>
+      </c>
+      <c r="E1296" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1296" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G1296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1296" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1296" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="K1296" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L1296" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1296" s="3"/>
+      <c r="N1296" s="3"/>
+      <c r="O1296" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1296" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Q1296" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1296" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:18">
+      <c r="B1297" s="3">
+        <v>1292</v>
+      </c>
+      <c r="C1297" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1297" s="3">
+        <v>780524075581</v>
+      </c>
+      <c r="E1297" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1297" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G1297" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1297" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I1297" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1297" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1297" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L1297" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1297" s="3"/>
+      <c r="N1297" s="3"/>
+      <c r="O1297" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1297" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Q1297" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1297" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:18">
+      <c r="B1298" s="3">
+        <v>1293</v>
+      </c>
+      <c r="C1298" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1298" s="3">
+        <v>581219075604</v>
+      </c>
+      <c r="E1298" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1298" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1298" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1298" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I1298" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1298" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1298" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L1298" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1298" s="3"/>
+      <c r="N1298" s="3"/>
+      <c r="O1298" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1298" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Q1298" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1298" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:18">
+      <c r="B1299" s="3">
+        <v>1294</v>
+      </c>
+      <c r="C1299" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1299" s="3">
+        <v>550430075368</v>
+      </c>
+      <c r="E1299" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1299" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1299" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1299" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I1299" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1299" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1299" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L1299" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1299" s="3"/>
+      <c r="N1299" s="3"/>
+      <c r="O1299" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1299" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Q1299" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1299" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:18">
+      <c r="B1300" s="3">
+        <v>1295</v>
+      </c>
+      <c r="C1300" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1300" s="3">
+        <v>750525145054</v>
+      </c>
+      <c r="E1300" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1300" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G1300" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1300" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I1300" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1300" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1300" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="L1300" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1300" s="3"/>
+      <c r="N1300" s="3"/>
+      <c r="O1300" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1300" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="Q1300" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1300" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:18">
+      <c r="B1301" s="3">
+        <v>1296</v>
+      </c>
+      <c r="C1301" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1301" s="3">
+        <v>480614075345</v>
+      </c>
+      <c r="E1301" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1301" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1301" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I1301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1301" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1301" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1301" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1301" s="3"/>
+      <c r="N1301" s="3"/>
+      <c r="O1301" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1301" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1301" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1301" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:18">
+      <c r="B1302" s="3">
+        <v>1297</v>
+      </c>
+      <c r="C1302" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1302" s="3">
+        <v>880730085842</v>
+      </c>
+      <c r="E1302" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1302" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1302" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1302" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1302" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1302" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K1302" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1302" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1302" s="3"/>
+      <c r="N1302" s="3"/>
+      <c r="O1302" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1302" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1302" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1302" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:18">
+      <c r="B1303" s="3">
+        <v>1298</v>
+      </c>
+      <c r="C1303" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D1303" s="3">
+        <v>641002075867</v>
+      </c>
+      <c r="E1303" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1303" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1303" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1303" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="I1303" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1303" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1303" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1303" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1303" s="3"/>
+      <c r="N1303" s="3"/>
+      <c r="O1303" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1303" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1303" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1303" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:18">
+      <c r="B1304" s="3">
+        <v>1299</v>
+      </c>
+      <c r="C1304" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D1304" s="3">
+        <v>800831075771</v>
+      </c>
+      <c r="E1304" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1304" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1304" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1304" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I1304" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1304" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1304" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1304" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1304" s="3"/>
+      <c r="N1304" s="3"/>
+      <c r="O1304" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1304" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1304" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1304" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:18">
+      <c r="B1305" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C1305" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D1305" s="3">
+        <v>710111075547</v>
+      </c>
+      <c r="E1305" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1305" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1305" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1305" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I1305" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1305" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1305" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1305" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1305" s="3"/>
+      <c r="N1305" s="3"/>
+      <c r="O1305" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1305" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1305" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1305" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:18">
+      <c r="B1306" s="3">
+        <v>1301</v>
+      </c>
+      <c r="C1306" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1306" s="3">
+        <v>640112715701</v>
+      </c>
+      <c r="E1306" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1306" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G1306" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1306" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I1306" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1306" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1306" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L1306" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1306" s="3"/>
+      <c r="N1306" s="3"/>
+      <c r="O1306" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1306" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q1306" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1306" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:18">
+      <c r="B1307" s="3">
+        <v>1302</v>
+      </c>
+      <c r="C1307" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1307" s="3">
+        <v>480614075345</v>
+      </c>
+      <c r="E1307" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1307" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1307" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1307" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I1307" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1307" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="K1307" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L1307" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1307" s="3"/>
+      <c r="N1307" s="3"/>
+      <c r="O1307" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1307" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="Q1307" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1307" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:18">
+      <c r="B1308" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C1308" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1308" s="3">
+        <v>750711075547</v>
+      </c>
+      <c r="E1308" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1308" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1308" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1308" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1308" s="3">
+        <v>5</v>
+      </c>
+      <c r="J1308" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1308" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L1308" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1308" s="3"/>
+      <c r="N1308" s="3"/>
+      <c r="O1308" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1308" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="Q1308" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1308" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:18">
+      <c r="B1309" s="3">
+        <v>1304</v>
+      </c>
+      <c r="C1309" s="3" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1309" s="3">
+        <v>720704035355</v>
+      </c>
+      <c r="E1309" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1309" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G1309" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1309" s="3" t="s">
+        <v>2666</v>
+      </c>
+      <c r="I1309" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1309" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K1309" s="3" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L1309" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1309" s="3"/>
+      <c r="N1309" s="3"/>
+      <c r="O1309" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1309" s="3" t="s">
+        <v>2667</v>
+      </c>
+      <c r="Q1309" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:18">
+      <c r="B1310" s="3">
+        <v>1305</v>
+      </c>
+      <c r="C1310" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D1310" s="3">
+        <v>730909075819</v>
+      </c>
+      <c r="E1310" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1310" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G1310" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1310" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="I1310" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1310" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1310" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L1310" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1310" s="3"/>
+      <c r="N1310" s="3"/>
+      <c r="O1310" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1310" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="Q1310" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1310" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:18">
+      <c r="B1311" s="3">
+        <v>1306</v>
+      </c>
+      <c r="C1311" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1311" s="3">
+        <v>510421075597</v>
+      </c>
+      <c r="E1311" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1311" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1311" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1311" s="3" t="s">
+        <v>2670</v>
+      </c>
+      <c r="I1311" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1311" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="K1311" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L1311" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1311" s="3"/>
+      <c r="N1311" s="3"/>
+      <c r="O1311" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1311" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="Q1311" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1311" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:18">
+      <c r="B1312" s="3">
+        <v>1307</v>
+      </c>
+      <c r="C1312" s="3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1312" s="3">
+        <v>510916075310</v>
+      </c>
+      <c r="E1312" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1312" s="3" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G1312" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1312" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="I1312" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1312" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1312" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L1312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1312" s="3"/>
+      <c r="N1312" s="3"/>
+      <c r="O1312" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1312" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="Q1312" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1312" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:18">
+      <c r="B1313" s="3">
+        <v>1308</v>
+      </c>
+      <c r="C1313" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D1313" s="3">
+        <v>650614075619</v>
+      </c>
+      <c r="E1313" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1313" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G1313" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1313" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I1313" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1313" s="3" t="s">
+        <v>2673</v>
+      </c>
+      <c r="K1313" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L1313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1313" s="3"/>
+      <c r="N1313" s="3"/>
+      <c r="O1313" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1313" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="Q1313" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1313" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:18">
+      <c r="B1314" s="3">
+        <v>1309</v>
+      </c>
+      <c r="C1314" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1314" s="3">
+        <v>580101075719</v>
+      </c>
+      <c r="E1314" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1314" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1314" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1314" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1314" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J1314" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1314" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="L1314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1314" s="3"/>
+      <c r="N1314" s="3"/>
+      <c r="O1314" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1314" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="Q1314" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1314" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:18">
+      <c r="B1315" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C1315" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D1315" s="3">
+        <v>580501086660</v>
+      </c>
+      <c r="E1315" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1315" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="G1315" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1315" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="I1315" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1315" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1315" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L1315" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1315" s="3"/>
+      <c r="N1315" s="3"/>
+      <c r="O1315" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1315" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="Q1315" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1315" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:18">
+      <c r="B1316" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C1316" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D1316" s="3">
+        <v>590414085474</v>
+      </c>
+      <c r="E1316" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1316" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1316" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1316" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I1316" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1316" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1316" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L1316" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1316" s="3"/>
+      <c r="N1316" s="3"/>
+      <c r="O1316" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1316" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="Q1316" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1316" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:18">
+      <c r="B1317" s="3">
+        <v>1312</v>
+      </c>
+      <c r="C1317" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1317" s="3">
+        <v>620908075334</v>
+      </c>
+      <c r="E1317" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1317" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1317" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1317" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="I1317" s="3">
+        <v>4</v>
+      </c>
+      <c r="J1317" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1317" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L1317" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1317" s="3"/>
+      <c r="N1317" s="3"/>
+      <c r="O1317" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1317" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="Q1317" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1317" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:18">
+      <c r="B1318" s="3">
+        <v>1313</v>
+      </c>
+      <c r="C1318" s="3" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D1318" s="3">
+        <v>840924025374</v>
+      </c>
+      <c r="E1318" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F1318" s="3" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G1318" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1318" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I1318" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1318" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K1318" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L1318" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1318" s="3"/>
+      <c r="N1318" s="3"/>
+      <c r="O1318" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1318" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="Q1318" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="R1318" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:18">
+      <c r="B1319" s="3">
+        <v>1314</v>
+      </c>
+      <c r="C1319" s="3" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1319" s="3">
+        <v>811206075665</v>
+      </c>
+      <c r="E1319" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1319" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G1319" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1319" s="3" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I1319" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1319" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1319" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L1319" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1319" s="3"/>
+      <c r="N1319" s="3"/>
+      <c r="O1319" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1319" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Q1319" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1319" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:18">
+      <c r="B1320" s="3">
+        <v>1315</v>
+      </c>
+      <c r="C1320" s="3" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D1320" s="3">
+        <v>570512075570</v>
+      </c>
+      <c r="E1320" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1320" s="3" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G1320" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1320" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="I1320" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1320" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1320" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L1320" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1320" s="3"/>
+      <c r="N1320" s="3"/>
+      <c r="O1320" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1320" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Q1320" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1320" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:18">
+      <c r="B1321" s="3">
+        <v>1316</v>
+      </c>
+      <c r="C1321" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1321" s="3">
+        <v>610515075588</v>
+      </c>
+      <c r="E1321" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1321" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1321" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1321" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1321" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1321" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1321" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L1321" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1321" s="3"/>
+      <c r="N1321" s="3"/>
+      <c r="O1321" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1321" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Q1321" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1321" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:18">
+      <c r="B1322" s="3">
+        <v>1317</v>
+      </c>
+      <c r="C1322" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D1322" s="3">
+        <v>531203075460</v>
+      </c>
+      <c r="E1322" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1322" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="G1322" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1322" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I1322" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1322" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1322" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L1322" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1322" s="3"/>
+      <c r="N1322" s="3"/>
+      <c r="O1322" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1322" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="Q1322" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1322" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:18">
+      <c r="B1323" s="3">
+        <v>1318</v>
+      </c>
+      <c r="C1323" s="3" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D1323" s="3">
+        <v>770815075697</v>
+      </c>
+      <c r="E1323" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1323" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1323" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1323" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="I1323" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1323" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1323" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L1323" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1323" s="3"/>
+      <c r="N1323" s="3"/>
+      <c r="O1323" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1323" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="Q1323" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1323" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:18">
+      <c r="B1324" s="3">
+        <v>1319</v>
+      </c>
+      <c r="C1324" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1324" s="3">
+        <v>530919075226</v>
+      </c>
+      <c r="E1324" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1324" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1324" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1324" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I1324" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1324" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1324" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L1324" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1324" s="3"/>
+      <c r="N1324" s="3"/>
+      <c r="O1324" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1324" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="Q1324" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1324" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:18">
+      <c r="B1325" s="3">
+        <v>1320</v>
+      </c>
+      <c r="C1325" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D1325" s="3">
+        <v>621224075653</v>
+      </c>
+      <c r="E1325" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F1325" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1325" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1325" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="I1325" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1325" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K1325" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L1325" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1325" s="3"/>
+      <c r="N1325" s="3"/>
+      <c r="O1325" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1325" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="Q1325" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R1325" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:18">
+      <c r="B1326" s="3">
+        <v>1321</v>
+      </c>
+      <c r="C1326" s="3" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D1326" s="3">
+        <v>680514075467</v>
+      </c>
+      <c r="E1326" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1326" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1326" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1326" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="I1326" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1326" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K1326" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L1326" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1326" s="3"/>
+      <c r="N1326" s="3"/>
+      <c r="O1326" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1326" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="Q1326" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1326" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:18">
+      <c r="B1327" s="3">
+        <v>1322</v>
+      </c>
+      <c r="C1327" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1327" s="3">
+        <v>781017075725</v>
+      </c>
+      <c r="E1327" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1327" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1327" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1327" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I1327" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1327" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1327" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L1327" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1327" s="3"/>
+      <c r="N1327" s="3"/>
+      <c r="O1327" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1327" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="Q1327" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1327" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:18">
+      <c r="B1328" s="3">
+        <v>1323</v>
+      </c>
+      <c r="C1328" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D1328" s="3">
+        <v>750906075475</v>
+      </c>
+      <c r="E1328" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1328" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1328" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I1328" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1328" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1328" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="L1328" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1328" s="3"/>
+      <c r="N1328" s="3"/>
+      <c r="O1328" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1328" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="Q1328" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1328" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:18">
+      <c r="B1329" s="3">
+        <v>1324</v>
+      </c>
+      <c r="C1329" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1329" s="3">
+        <v>640112715701</v>
+      </c>
+      <c r="E1329" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1329" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G1329" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1329" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I1329" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1329" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1329" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L1329" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1329" s="3"/>
+      <c r="N1329" s="3"/>
+      <c r="O1329" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1329" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="Q1329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1329" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:18">
+      <c r="B1330" s="3">
+        <v>1325</v>
+      </c>
+      <c r="C1330" s="3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D1330" s="3">
+        <v>590316105814</v>
+      </c>
+      <c r="E1330" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1330" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1330" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1330" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="I1330" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1330" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1330" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1330" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1330" s="3"/>
+      <c r="N1330" s="3"/>
+      <c r="O1330" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1330" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Q1330" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1330" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:18">
+      <c r="B1331" s="3">
+        <v>1326</v>
+      </c>
+      <c r="C1331" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D1331" s="3">
+        <v>890627075653</v>
+      </c>
+      <c r="E1331" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1331" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G1331" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1331" s="3" t="s">
+        <v>2692</v>
+      </c>
+      <c r="I1331" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1331" s="3" t="s">
+        <v>2693</v>
+      </c>
+      <c r="K1331" s="3" t="s">
+        <v>2694</v>
+      </c>
+      <c r="L1331" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1331" s="3"/>
+      <c r="N1331" s="3"/>
+      <c r="O1331" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1331" s="3" t="s">
+        <v>2694</v>
+      </c>
+      <c r="Q1331" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="R1331" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:18">
+      <c r="B1332" s="3">
+        <v>1327</v>
+      </c>
+      <c r="C1332" s="3" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1332" s="3">
+        <v>841003075937</v>
+      </c>
+      <c r="E1332" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1332" s="3" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G1332" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1332" s="3" t="s">
+        <v>2697</v>
+      </c>
+      <c r="I1332" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1332" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K1332" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L1332" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1332" s="3"/>
+      <c r="N1332" s="3"/>
+      <c r="O1332" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1332" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="Q1332" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1332" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:18">
+      <c r="B1333" s="3">
+        <v>1328</v>
+      </c>
+      <c r="C1333" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1333" s="3">
+        <v>580523095074</v>
+      </c>
+      <c r="E1333" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1333" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G1333" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1333" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I1333" s="3">
+        <v>5</v>
+      </c>
+      <c r="J1333" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1333" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1333" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1333" s="3"/>
+      <c r="N1333" s="3"/>
+      <c r="O1333" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1333" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Q1333" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1333" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:18">
+      <c r="B1334" s="3">
+        <v>1329</v>
+      </c>
+      <c r="C1334" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1334" s="3">
+        <v>901107075220</v>
+      </c>
+      <c r="E1334" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1334" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1334" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1334" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I1334" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1334" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1334" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L1334" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1334" s="3"/>
+      <c r="N1334" s="3"/>
+      <c r="O1334" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1334" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Q1334" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1334" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:18">
+      <c r="B1335" s="3">
+        <v>1330</v>
+      </c>
+      <c r="C1335" s="3" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D1335" s="3">
+        <v>790309075975</v>
+      </c>
+      <c r="E1335" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1335" s="3" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G1335" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1335" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I1335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1335" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1335" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L1335" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1335" s="3"/>
+      <c r="N1335" s="3"/>
+      <c r="O1335" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1335" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="Q1335" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1335" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:18">
+      <c r="B1336" s="3">
+        <v>1331</v>
+      </c>
+      <c r="C1336" s="3" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D1336" s="3">
+        <v>850625075696</v>
+      </c>
+      <c r="E1336" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1336" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G1336" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1336" s="3" t="s">
+        <v>2704</v>
+      </c>
+      <c r="I1336" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1336" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1336" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L1336" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1336" s="3"/>
+      <c r="N1336" s="3"/>
+      <c r="O1336" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1336" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="Q1336" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1336" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:18">
+      <c r="B1337" s="3">
+        <v>1332</v>
+      </c>
+      <c r="C1337" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D1337" s="3">
+        <v>540824085412</v>
+      </c>
+      <c r="E1337" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1337" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G1337" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1337" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I1337" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1337" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1337" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L1337" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1337" s="3"/>
+      <c r="N1337" s="3"/>
+      <c r="O1337" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1337" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="Q1337" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1337" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:18">
+      <c r="B1338" s="3">
+        <v>1333</v>
+      </c>
+      <c r="C1338" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1338" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1338" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1338" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1338" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1338" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="I1338" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1338" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1338" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="L1338" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1338" s="3"/>
+      <c r="N1338" s="3"/>
+      <c r="O1338" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1338" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="Q1338" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1338" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:18">
+      <c r="B1339" s="3">
+        <v>1334</v>
+      </c>
+      <c r="C1339" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1339" s="3">
+        <v>880508075045</v>
+      </c>
+      <c r="E1339" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1339" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G1339" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1339" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I1339" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1339" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K1339" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L1339" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1339" s="3"/>
+      <c r="N1339" s="3"/>
+      <c r="O1339" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1339" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="Q1339" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1339" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:18">
+      <c r="B1340" s="3">
+        <v>1335</v>
+      </c>
+      <c r="C1340" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D1340" s="3">
+        <v>640403075417</v>
+      </c>
+      <c r="E1340" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1340" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G1340" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1340" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I1340" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1340" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1340" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="L1340" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1340" s="3"/>
+      <c r="N1340" s="3"/>
+      <c r="O1340" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1340" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="Q1340" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1340" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:18">
+      <c r="B1341" s="3">
+        <v>1336</v>
+      </c>
+      <c r="C1341" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1341" s="3">
+        <v>580101075719</v>
+      </c>
+      <c r="E1341" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1341" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1341" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1341" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1341" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J1341" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1341" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L1341" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1341" s="3"/>
+      <c r="N1341" s="3"/>
+      <c r="O1341" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1341" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q1341" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1341" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:18">
+      <c r="B1342" s="3">
+        <v>1337</v>
+      </c>
+      <c r="C1342" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1342" s="3">
+        <v>670117025846</v>
+      </c>
+      <c r="E1342" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1342" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G1342" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1342" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I1342" s="3">
+        <v>2</v>
+      </c>
+      <c r="J1342" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1342" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L1342" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1342" s="3"/>
+      <c r="N1342" s="3"/>
+      <c r="O1342" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1342" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q1342" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1342" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:18">
+      <c r="B1343" s="3">
+        <v>1338</v>
+      </c>
+      <c r="C1343" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D1343" s="3">
+        <v>710111075547</v>
+      </c>
+      <c r="E1343" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F1343" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1343" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1343" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I1343" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1343" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1343" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L1343" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1343" s="3"/>
+      <c r="N1343" s="3"/>
+      <c r="O1343" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1343" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q1343" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1343" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:18">
+      <c r="B1344" s="3">
+        <v>1339</v>
+      </c>
+      <c r="C1344" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1344" s="3">
+        <v>980121075161</v>
+      </c>
+      <c r="E1344" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F1344" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1344" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1344" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="I1344" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1344" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1344" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L1344" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1344" s="3"/>
+      <c r="N1344" s="3"/>
+      <c r="O1344" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1344" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q1344" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1344" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:18">
+      <c r="B1345" s="3">
+        <v>1340</v>
+      </c>
+      <c r="C1345" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1345" s="3">
+        <v>480614075345</v>
+      </c>
+      <c r="E1345" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1345" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1345" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1345" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I1345" s="3">
+        <v>0</v>
+      </c>
+      <c r="J1345" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1345" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="L1345" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1345" s="3"/>
+      <c r="N1345" s="3"/>
+      <c r="O1345" s="3">
+        <v>1</v>
+      </c>
+      <c r="P1345" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="Q1345" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1345" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
